--- a/Polyploids/docs/MethylFlashELISA_StdCrv_and_Data_Analysis.xlsx
+++ b/Polyploids/docs/MethylFlashELISA_StdCrv_and_Data_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/C_gigas/Polyploids/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F47CCF-520C-F64E-B58B-194D2E1AD418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C08D4-1EEF-AA4C-AB2E-9CF5A6448D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1000" windowWidth="32680" windowHeight="15640" activeTab="1" xr2:uid="{A9FC80AD-374B-154F-9165-D1EECA4F334F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DataAndStdCrv" sheetId="1" r:id="rId1"/>
     <sheet name="MethylationCalcs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>A</t>
   </si>
@@ -181,6 +181,54 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>sample description</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #1 diploid control</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #2 diploid control</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #9 diploid heat shocked (45C)</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #10 diploid heat shocked (45C)</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #1 triploid control</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #2 triploid control</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #9 triploid heat shocked (45C)</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #10 triploid heat shocked (45C)</t>
+  </si>
+  <si>
+    <t>C. gigas gonad individual #4 triploid</t>
+  </si>
+  <si>
+    <t>C. gigas ctentida individual #4 triploid</t>
+  </si>
+  <si>
+    <t>C. gigas muscle individual #4 triploid</t>
+  </si>
+  <si>
+    <t>C. gigas mantle individual #4 triploid</t>
+  </si>
+  <si>
+    <t>sea lice female #1</t>
+  </si>
+  <si>
+    <t>sea lice female #2</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -270,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -383,11 +431,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -408,10 +486,27 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4467,16 +4562,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636EBE93-DFF5-F149-937F-778E66B5A174}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4515,8 +4613,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
@@ -4556,8 +4654,8 @@
         <v>2.2048538167187508</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -4597,8 +4695,8 @@
         <v>0.55313209526417229</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
@@ -4638,8 +4736,8 @@
         <v>0.97663329355555528</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -4681,8 +4779,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -4724,8 +4822,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -4767,8 +4865,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -4810,8 +4908,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -4885,31 +4983,25 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -4919,171 +5011,123 @@
       <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="17">
-        <v>2.4813886635493261</v>
-      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>(B4-$B$4)/(0.284*100)*100</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>(G4-$B$4)/(0.285*100)*100</f>
+        <f t="shared" ref="C21:C27" si="0">(G4-$B$4)/(0.285*100)*100</f>
         <v>2.4813886635493261</v>
       </c>
       <c r="D21">
-        <f>(M4-$B$4)/(0.285*100)*100</f>
+        <f t="shared" ref="D21:D28" si="1">(M4-$B$4)/(0.285*100)*100</f>
         <v>7.0246176471834012</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="17">
-        <v>2.9838139015960903</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B22">
-        <f>(B5-$B$4)/(0.285*100)*100</f>
+        <f t="shared" ref="B22:B28" si="2">(B5-$B$4)/(0.285*100)*100</f>
         <v>0.32386492462927974</v>
       </c>
       <c r="C22">
-        <f>(G5-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="0"/>
         <v>2.9838139015960903</v>
       </c>
       <c r="D22">
-        <f>(M5-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>1.2291028350620707</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1.9596147176602197</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B23">
-        <f>(B6-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="2"/>
         <v>0.16136246953351235</v>
       </c>
       <c r="C23">
-        <f>(G6-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="0"/>
         <v>1.9596147176602197</v>
       </c>
       <c r="D23">
-        <f>(M6-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>2.7150719518739415</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="17">
-        <v>1.5159454916122392</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24">
-        <f>(B7-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="2"/>
         <v>1.1205463799586179</v>
       </c>
       <c r="C24">
-        <f>(G7-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="0"/>
         <v>1.5159454916122392</v>
       </c>
       <c r="D24">
-        <f>(M7-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>4.5729731878511508</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="17">
-        <v>-0.1166065373006528</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25">
-        <f>(B8-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="2"/>
         <v>1.6466653594893101</v>
       </c>
       <c r="C25">
-        <f>(G8-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1166065373006528</v>
       </c>
       <c r="D25">
-        <f>(M8-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>2.2099767315826773</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>5.1882270388004432</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
         <v>-1.6736149393408409E-2</v>
       </c>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <f>(B9-$B$4)/(0.285*100)*100</f>
-        <v>5.1882270388004432</v>
-      </c>
-      <c r="C26">
-        <f>(G9-$B$4)/(0.285*100)*100</f>
-        <v>-1.6736149393408409E-2</v>
-      </c>
       <c r="D26">
-        <f>(M9-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>2.4562638031232744</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>7.7824893538165574</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
         <v>0.55950916152093089</v>
       </c>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f>(B10-$B$4)/(0.285*100)*100</f>
-        <v>7.7824893538165574</v>
-      </c>
-      <c r="C27">
-        <f>(G10-$B$4)/(0.285*100)*100</f>
-        <v>0.55950916152093089</v>
-      </c>
       <c r="D27">
-        <f>(M10-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>0.52791922727036389</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="17">
-        <v>3.3775412983284991</v>
-      </c>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28">
-        <f>(B11-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="2"/>
         <v>-0.43298528298194278</v>
       </c>
       <c r="C28">
@@ -5091,69 +5135,195 @@
         <v>3.3775412983284991</v>
       </c>
       <c r="D28">
-        <f>(M11-$B$4)/(0.285*100)*100</f>
+        <f t="shared" si="1"/>
         <v>0.8785202687130671</v>
       </c>
-      <c r="F28" s="16" t="s">
+    </row>
+    <row r="29" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20">
+        <v>2.4813886635493261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="20">
+        <v>2.9838139015960903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.9596147176602197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1.5159454916122392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="20">
+        <v>-0.1166065373006528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="20">
+        <v>-1.6736149393408409E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="20">
+        <v>0.55950916152093089</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="20">
+        <v>3.3775412983284991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="17">
+      <c r="C39" s="20">
         <v>7.0246176471834012</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F29" s="16" t="s">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="17">
+      <c r="C40" s="20">
         <v>1.2291028350620707</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F30" s="16" t="s">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="17">
+      <c r="C41" s="20">
         <v>2.7150719518739415</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F31" s="16" t="s">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="17">
+      <c r="C42" s="20">
         <v>4.5729731878511508</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F32" s="16" t="s">
+    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="17">
+      <c r="C43" s="20">
         <v>2.2099767315826773</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="16" t="s">
+    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="17">
+      <c r="C44" s="20">
         <v>2.4562638031232744</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="16" t="s">
+    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="17">
+      <c r="C45" s="20">
         <v>0.52791922727036389</v>
       </c>
     </row>
-    <row r="35" spans="6:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="18" t="s">
+    <row r="46" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="19">
+      <c r="C46" s="22">
         <v>0.8785202687130671</v>
       </c>
     </row>

--- a/Polyploids/docs/MethylFlashELISA_StdCrv_and_Data_Analysis.xlsx
+++ b/Polyploids/docs/MethylFlashELISA_StdCrv_and_Data_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/C_gigas/Polyploids/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C08D4-1EEF-AA4C-AB2E-9CF5A6448D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24ED4E-DFC8-094E-B728-4239704D79AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1000" windowWidth="32680" windowHeight="15640" activeTab="1" xr2:uid="{A9FC80AD-374B-154F-9165-D1EECA4F334F}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>C. gigas gonad individual #4 triploid</t>
   </si>
   <si>
-    <t>C. gigas ctentida individual #4 triploid</t>
-  </si>
-  <si>
     <t>C. gigas muscle individual #4 triploid</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>C. gigas ctenidia individual #4 triploid</t>
   </si>
 </sst>
 </file>
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636EBE93-DFF5-F149-937F-778E66B5A174}">
   <dimension ref="A2:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>15</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>15</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>17</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>23</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>24</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>32</v>
